--- a/loss_log_plotting_data_valid.xlsx
+++ b/loss_log_plotting_data_valid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TesiUNINA\Colab Notebooks\tentativo5\pytorch-CycleGAN-and-pix2pix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\TesiUNINA\Colab Notebooks\tentativo4\pytorch-CycleGAN-and-pix2pix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D91E74-DA86-4A38-A632-7EC827BECBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F025A3-F1EF-407A-B171-B1AD43501F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EAD604FC-E07F-4CAB-A4EC-FC68F295B2D4}"/>
   </bookViews>
@@ -34,33 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>epoch</t>
-  </si>
-  <si>
-    <t>G_A_loss</t>
-  </si>
-  <si>
-    <t>G_B_loss</t>
-  </si>
-  <si>
-    <t>cycle_A_loss</t>
-  </si>
-  <si>
-    <t>idt_A_loss</t>
   </si>
   <si>
     <t>D_A_loss</t>
   </si>
   <si>
     <t>D_B_loss</t>
-  </si>
-  <si>
-    <t>cycle_B_loss</t>
-  </si>
-  <si>
-    <t>idt_B_loss</t>
   </si>
   <si>
     <t>A (source domain), B (target domain).</t>
@@ -452,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23213FB-FC65-4CB4-8284-190A64A75A36}">
   <dimension ref="C1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,100 +454,58 @@
   <sheetData>
     <row r="1" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.41099999999999998</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.7E-2</v>
-      </c>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="2">
-        <v>0.40100000000000002</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="M4" s="2">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.156</v>
-      </c>
+        <v>0.251</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C5">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.35099999999999998</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3.1E-2</v>
-      </c>
+        <v>0.224</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2">
-        <v>0.32500000000000001</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="2">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="M5" s="2">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.13900000000000001</v>
-      </c>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
       <c r="Q5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.35">
@@ -573,33 +513,21 @@
         <f t="shared" ref="C6:C53" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.16700000000000001</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>0.245</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.04</v>
-      </c>
+        <v>0.21</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="2">
-        <v>0.39</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.121</v>
-      </c>
+        <v>0.26</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="Q6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.35">
@@ -607,33 +535,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.439</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>0.189</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.4E-2</v>
-      </c>
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2">
-        <v>0.24399999999999999</v>
-      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="M7" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.11700000000000001</v>
-      </c>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
       <c r="Q7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.35">
@@ -641,33 +557,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.71899999999999997</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>0.105</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="2">
-        <v>0.38500000000000001</v>
-      </c>
+      <c r="K8" s="2"/>
       <c r="L8" s="2">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.124</v>
-      </c>
+        <v>0.218</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
       <c r="Q8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.35">
@@ -675,33 +579,21 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.54800000000000004</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="2">
-        <v>0.57699999999999996</v>
-      </c>
+      <c r="K9" s="2"/>
       <c r="L9" s="2">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="M9" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.109</v>
-      </c>
+        <v>0.218</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
       <c r="Q9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.35">
@@ -709,33 +601,21 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.873</v>
-      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2.8000000000000001E-2</v>
-      </c>
+        <v>0.252</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="2">
-        <v>0.28199999999999997</v>
-      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="M10" s="2">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="N10" s="2">
-        <v>9.0999999999999998E-2</v>
-      </c>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="Q10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.35">
@@ -743,33 +623,21 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.32400000000000001</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
+        <v>0.316</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="2">
-        <v>0.32</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="M11" s="2">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.11</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="Q11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.35">
@@ -777,62 +645,38 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="2">
-        <v>0.54600000000000004</v>
-      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="I12" s="2">
-        <v>3.6999999999999998E-2</v>
-      </c>
+        <v>0.307</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="2">
-        <v>0.26600000000000001</v>
-      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
-        <v>0.183</v>
-      </c>
-      <c r="M12" s="2">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="N12" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.499</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.2270000000000001</v>
-      </c>
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="2">
-        <v>0.57899999999999996</v>
-      </c>
+      <c r="K13" s="2"/>
       <c r="L13" s="2">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2.4609999999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0.114</v>
-      </c>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C14">
@@ -840,12 +684,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>0.252</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="L14" s="2">
+        <v>0.254</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
@@ -855,12 +703,16 @@
         <v>12</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>0.32300000000000001</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>0.23300000000000001</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
@@ -870,12 +722,16 @@
         <v>13</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>0.29099999999999998</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="L16" s="2">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
@@ -885,12 +741,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2">
+        <v>0.27800000000000002</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="2">
+        <v>0.23699999999999999</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
@@ -900,12 +760,16 @@
         <v>15</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>0.30599999999999999</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="L18" s="2">
+        <v>0.23799999999999999</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
     </row>
@@ -915,12 +779,16 @@
         <v>16</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>0.34300000000000003</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="2">
+        <v>0.23799999999999999</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
@@ -930,12 +798,16 @@
         <v>17</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>0.32500000000000001</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
@@ -945,12 +817,16 @@
         <v>18</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>0.32400000000000001</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>0.23799999999999999</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
@@ -960,12 +836,16 @@
         <v>19</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>0.24</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
@@ -975,12 +855,16 @@
         <v>20</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="2">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
@@ -990,12 +874,16 @@
         <v>21</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2">
+        <v>0.33700000000000002</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>0.24</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
@@ -1005,12 +893,16 @@
         <v>22</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>0.33700000000000002</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
@@ -1020,12 +912,16 @@
         <v>23</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="2">
+        <v>0.33600000000000002</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
@@ -1035,12 +931,16 @@
         <v>24</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="2">
+        <v>0.33600000000000002</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="3"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
@@ -1050,12 +950,16 @@
         <v>25</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="2">
+        <v>0.33600000000000002</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="3"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
@@ -1065,12 +969,16 @@
         <v>26</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="3"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
     </row>
@@ -1080,12 +988,16 @@
         <v>27</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="3"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
@@ -1095,12 +1007,16 @@
         <v>28</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
     </row>
@@ -1110,12 +1026,16 @@
         <v>29</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="3"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
@@ -1125,12 +1045,16 @@
         <v>30</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
+      <c r="L33" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
     </row>
@@ -1140,12 +1064,16 @@
         <v>31</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="3"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
@@ -1155,12 +1083,16 @@
         <v>32</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="3"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
@@ -1170,12 +1102,16 @@
         <v>33</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="3"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
@@ -1185,12 +1121,16 @@
         <v>34</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="3"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
@@ -1200,12 +1140,16 @@
         <v>35</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="3"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
@@ -1215,12 +1159,16 @@
         <v>36</v>
       </c>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="3"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
@@ -1230,12 +1178,16 @@
         <v>37</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="3"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
@@ -1245,12 +1197,16 @@
         <v>38</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+      <c r="L41" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
@@ -1260,12 +1216,16 @@
         <v>39</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="3"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="L42" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
     </row>
@@ -1275,12 +1235,16 @@
         <v>40</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="2">
+        <v>0.33500000000000002</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="3"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2">
+        <v>0.23899999999999999</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
     </row>
